--- a/ATW/NguyenTrungNgoc_ATW_FinalExam/src/main/resources/FinalExam.xlsx
+++ b/ATW/NguyenTrungNgoc_ATW_FinalExam/src/main/resources/FinalExam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\NguyenTrungNgoc_ATW_FinalExam\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java_Assignment\Java_Assignment\Java_Automation\ATW\NguyenTrungNgoc_ATW_FinalExam\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D683565E-DB3D-4A3F-88AB-1AA929B11776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB56B37-8438-4FC8-B279-1BBCE6FD4432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E27EF182-99E0-48CE-A3F5-536EB704D6AD}"/>
+    <workbookView xWindow="168" yWindow="168" windowWidth="19032" windowHeight="11892" xr2:uid="{E27EF182-99E0-48CE-A3F5-536EB704D6AD}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_VerifyAddNewProduct" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +563,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
